--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/42.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/42.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2647534832200357</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.942174725191873</v>
+        <v>-1.929904481035876</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1312461389239796</v>
+        <v>0.1252365809817994</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.147541283746491</v>
+        <v>-0.142295330955856</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2684024611185134</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.085049191175834</v>
+        <v>-2.068784985467157</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06869621866136005</v>
+        <v>0.06413356837727037</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1199113336741348</v>
+        <v>-0.1165532230650447</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2919848681150071</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.297083945154005</v>
+        <v>-2.279520296644419</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05598503998190893</v>
+        <v>0.05080624940345577</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1429085511540377</v>
+        <v>-0.1397957286242203</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3303537063317841</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.466410832425005</v>
+        <v>-2.449232636611419</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00171505244283259</v>
+        <v>-0.001783222782984652</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1685630561593944</v>
+        <v>-0.1644661612163046</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.37132148784757</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.536877133436531</v>
+        <v>-2.516794901970127</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07291530572396555</v>
+        <v>-0.07034562108396625</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1716948593143936</v>
+        <v>-0.1692054773193943</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4031462262900024</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.336783382769858</v>
+        <v>-2.314712565803636</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1246550299214971</v>
+        <v>-0.1198441714619529</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1475500440350364</v>
+        <v>-0.1456563616611278</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4185630568905205</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.029483410956077</v>
+        <v>-2.004461106774083</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1747273791992109</v>
+        <v>-0.1644866018895773</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1161371093591358</v>
+        <v>-0.1161619301766812</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.4126142874270227</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.675789681029626</v>
+        <v>-1.651417098248087</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1046523710760479</v>
+        <v>-0.09275881932750568</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07351392544123812</v>
+        <v>-0.07439287439196515</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3813187994422239</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.244446213484378</v>
+        <v>-1.218931873095749</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009219699630103302</v>
+        <v>0.01647175849764681</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01054935152080048</v>
+        <v>-0.01164730768516382</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3207042483950192</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9315433071217349</v>
+        <v>-0.9054799886509238</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07475541823863116</v>
+        <v>0.07834275639799383</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01600555123652629</v>
+        <v>-0.01710058730470781</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2319743724355655</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5670934029095601</v>
+        <v>-0.537686574310568</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1462320725290665</v>
+        <v>0.1466759271487028</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.021479271529343</v>
+        <v>-0.0205901022419796</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1209212675463495</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1232694442832248</v>
+        <v>-0.09078483430859711</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01055126348901204</v>
+        <v>0.009811019106921325</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0475707828340021</v>
+        <v>0.0472860734562749</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.0063893844381233</v>
       </c>
       <c r="E14" t="n">
-        <v>0.330430279630017</v>
+        <v>0.3628959089794629</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1630455344238504</v>
+        <v>-0.163883602028032</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1156820262748929</v>
+        <v>0.1174267837435288</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1437635656630584</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8750778591740527</v>
+        <v>0.9057739102373171</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1819648375858454</v>
+        <v>-0.1909295328640248</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1973717169612346</v>
+        <v>0.1991077141413251</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2857570802386116</v>
       </c>
       <c r="E16" t="n">
-        <v>1.574254008563683</v>
+        <v>1.601362721467585</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5173364240194825</v>
+        <v>-0.5285218524439341</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2628563338865806</v>
+        <v>0.2632695274963078</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4300561268255249</v>
       </c>
       <c r="E17" t="n">
-        <v>2.279371093635221</v>
+        <v>2.300235180854306</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6844009667736195</v>
+        <v>-0.6939788822499806</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3731527468180965</v>
+        <v>0.3736068217743691</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5793659041361341</v>
       </c>
       <c r="E18" t="n">
-        <v>3.04278351883247</v>
+        <v>3.058798786341648</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.962773735786272</v>
+        <v>-0.9704930100429063</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4844361522590666</v>
+        <v>0.485996943668248</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7346084880418446</v>
       </c>
       <c r="E19" t="n">
-        <v>3.67206424601412</v>
+        <v>3.684020579830571</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.203196934820026</v>
+        <v>-1.208460408187751</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6048112771621252</v>
+        <v>0.6040184710487617</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8914716670521767</v>
       </c>
       <c r="E20" t="n">
-        <v>4.332973994989124</v>
+        <v>4.336127698865487</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.463278221349774</v>
+        <v>-1.467110847588409</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7173444837689131</v>
+        <v>0.7173780648750041</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.042898074044463</v>
       </c>
       <c r="E21" t="n">
-        <v>4.856354514040984</v>
+        <v>4.85737654770462</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.735929061894155</v>
+        <v>-1.738744034613427</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8649684861926008</v>
+        <v>0.8634266754086012</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.17933593518432</v>
       </c>
       <c r="E22" t="n">
-        <v>5.374105087654299</v>
+        <v>5.365806174305574</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.955190323898278</v>
+        <v>-1.957138758075596</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9513069700003958</v>
+        <v>0.9499651858048507</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.294428208051519</v>
       </c>
       <c r="E23" t="n">
-        <v>5.721165819103751</v>
+        <v>5.709735102600027</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.203783952048757</v>
+        <v>-2.202699136317212</v>
       </c>
       <c r="G23" t="n">
-        <v>1.061514319998366</v>
+        <v>1.059010337522458</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.384299246173721</v>
       </c>
       <c r="E24" t="n">
-        <v>6.143429247571638</v>
+        <v>6.126637234478097</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.432815125853196</v>
+        <v>-2.429546808201696</v>
       </c>
       <c r="G24" t="n">
-        <v>1.181985808075425</v>
+        <v>1.177738528178971</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.446928327075825</v>
       </c>
       <c r="E25" t="n">
-        <v>6.433254633809378</v>
+        <v>6.406702199228112</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.556522080499708</v>
+        <v>-2.553140609121163</v>
       </c>
       <c r="G25" t="n">
-        <v>1.255851101042587</v>
+        <v>1.251053383015861</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.483280902293877</v>
       </c>
       <c r="E26" t="n">
-        <v>6.597058889176516</v>
+        <v>6.56563719421207</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.605177453105195</v>
+        <v>-2.604549632426104</v>
       </c>
       <c r="G26" t="n">
-        <v>1.319227408524661</v>
+        <v>1.314416550065116</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.494368923443148</v>
       </c>
       <c r="E27" t="n">
-        <v>6.701068335028579</v>
+        <v>6.667345604272861</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.689404707373536</v>
+        <v>-2.681770115906174</v>
       </c>
       <c r="G27" t="n">
-        <v>1.329891599780658</v>
+        <v>1.327351116102477</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.482604338586057</v>
       </c>
       <c r="E28" t="n">
-        <v>6.884987672944166</v>
+        <v>6.844862631309813</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.71680688994371</v>
+        <v>-2.709934443579803</v>
       </c>
       <c r="G28" t="n">
-        <v>1.369181493907011</v>
+        <v>1.367121366050739</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.452029894626508</v>
       </c>
       <c r="E29" t="n">
-        <v>6.848248482832631</v>
+        <v>6.807970136148732</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.73763812608075</v>
+        <v>-2.728651530081207</v>
       </c>
       <c r="G29" t="n">
-        <v>1.354583933094106</v>
+        <v>1.351919345328197</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.406104342844392</v>
       </c>
       <c r="E30" t="n">
-        <v>6.783837001254103</v>
+        <v>6.743482732069477</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.640200356685867</v>
+        <v>-2.636883857447368</v>
       </c>
       <c r="G30" t="n">
-        <v>1.337724757788383</v>
+        <v>1.33469953814402</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.350400768241102</v>
       </c>
       <c r="E31" t="n">
-        <v>6.807672286338187</v>
+        <v>6.761879338014927</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.540970378259394</v>
+        <v>-2.538567869125803</v>
       </c>
       <c r="G31" t="n">
-        <v>1.299635023192757</v>
+        <v>1.295862258925849</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.289352841733727</v>
       </c>
       <c r="E32" t="n">
-        <v>6.766716477340107</v>
+        <v>6.717690982543575</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.407478181307611</v>
+        <v>-2.408181194463384</v>
       </c>
       <c r="G32" t="n">
-        <v>1.253052188852315</v>
+        <v>1.248616562752134</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.226305898165561</v>
       </c>
       <c r="E33" t="n">
-        <v>6.599351164679243</v>
+        <v>6.54796331207162</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.373121059656393</v>
+        <v>-2.371909219740939</v>
       </c>
       <c r="G33" t="n">
-        <v>1.194930594449421</v>
+        <v>1.190511028878241</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.163978616138491</v>
       </c>
       <c r="E34" t="n">
-        <v>6.302884019675958</v>
+        <v>6.254835297052244</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.336077449517903</v>
+        <v>-2.338191599153539</v>
       </c>
       <c r="G34" t="n">
-        <v>1.145443724456162</v>
+        <v>1.141257766579527</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.102634350664222</v>
       </c>
       <c r="E35" t="n">
-        <v>6.107430301842193</v>
+        <v>6.061599392268569</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.29812860956305</v>
+        <v>-2.298892944738641</v>
       </c>
       <c r="G35" t="n">
-        <v>1.085311643832087</v>
+        <v>1.082822261837088</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.043506891252978</v>
       </c>
       <c r="E36" t="n">
-        <v>5.910040560239882</v>
+        <v>5.864717747401895</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.234556655636794</v>
+        <v>-2.239438326428747</v>
       </c>
       <c r="G36" t="n">
-        <v>1.063177314773911</v>
+        <v>1.059042458580458</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9862529130793241</v>
       </c>
       <c r="E37" t="n">
-        <v>5.604109383511328</v>
+        <v>5.561792809692522</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.189980657397306</v>
+        <v>-2.193700129908896</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9581721161238484</v>
+        <v>0.9552125986435765</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9303654427308747</v>
       </c>
       <c r="E38" t="n">
-        <v>5.29752848538232</v>
+        <v>5.257650191875331</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.143656981593</v>
+        <v>-2.14752902913009</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8846747552755955</v>
+        <v>0.8830249009328687</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8766511879830167</v>
       </c>
       <c r="E39" t="n">
-        <v>4.983642966654495</v>
+        <v>4.939486732241143</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.085147014397925</v>
+        <v>-2.090109717858924</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8041253621482535</v>
+        <v>0.8029266626656174</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8240206262687311</v>
       </c>
       <c r="E40" t="n">
-        <v>4.692953231946936</v>
+        <v>4.650535914809857</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.105207345142965</v>
+        <v>-2.108451572000964</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7635170445958098</v>
+        <v>0.7622000812178102</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7733140173087805</v>
       </c>
       <c r="E41" t="n">
-        <v>4.371603947378387</v>
+        <v>4.331467225359306</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.999848084830857</v>
+        <v>-2.002450620552902</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6839429635931948</v>
+        <v>0.682517956656468</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7240425080768218</v>
       </c>
       <c r="E42" t="n">
-        <v>3.994228237417397</v>
+        <v>3.958725708038861</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.909695955409609</v>
+        <v>-1.910539863206154</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6045601488904889</v>
+        <v>0.6027175681997621</v>
       </c>
     </row>
     <row r="43">
@@ -1422,10 +1422,10 @@
         <v>0.6750196951781002</v>
       </c>
       <c r="E43" t="n">
-        <v>3.692836350203478</v>
+        <v>3.660505045278395</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.85706122173235</v>
+        <v>-1.858198599195168</v>
       </c>
       <c r="G43" t="n">
         <v>0.5642511411966815</v>
@@ -1445,13 +1445,13 @@
         <v>0.6255359848630281</v>
       </c>
       <c r="E44" t="n">
-        <v>3.391781734098559</v>
+        <v>3.361865348715839</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.762345712002966</v>
+        <v>-1.764496362840875</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5155103557778764</v>
+        <v>0.5140006660518769</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5738918487544437</v>
       </c>
       <c r="E45" t="n">
-        <v>3.109154384948998</v>
+        <v>3.079642432887461</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.679639827845352</v>
+        <v>-1.68217447133117</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4206291305901746</v>
+        <v>0.4212452708845381</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5210601620803774</v>
       </c>
       <c r="E46" t="n">
-        <v>2.814531280684532</v>
+        <v>2.787688296533176</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.601087780506373</v>
+        <v>-1.603234051200009</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3827306622944576</v>
+        <v>0.3843746764448208</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4678495950292736</v>
       </c>
       <c r="E47" t="n">
-        <v>2.48485680190162</v>
+        <v>2.460282732483536</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.479459934341315</v>
+        <v>-1.482949449278587</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3190302241362019</v>
+        <v>0.3201573812623835</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4158768341993099</v>
       </c>
       <c r="E48" t="n">
-        <v>2.19205875775079</v>
+        <v>2.170895360673068</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.375856381858525</v>
+        <v>-1.379052427129524</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2907899739618459</v>
+        <v>0.2896277756814826</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3671443086592177</v>
       </c>
       <c r="E49" t="n">
-        <v>1.911815667133683</v>
+        <v>1.892785400316779</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.28881123477473</v>
+        <v>-1.29490109536191</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2368017757043149</v>
+        <v>0.2365813084425877</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3226214988044768</v>
       </c>
       <c r="E50" t="n">
-        <v>1.777974518688174</v>
+        <v>1.756668036897543</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.167433056833217</v>
+        <v>-1.173849968192761</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1982711065852344</v>
+        <v>0.1973074748452346</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.284264625893971</v>
       </c>
       <c r="E51" t="n">
-        <v>1.50356870033852</v>
+        <v>1.487122718642525</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.090970338312329</v>
+        <v>-1.099467818201417</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1675633751372426</v>
+        <v>0.1652112376627887</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2525316766278878</v>
       </c>
       <c r="E52" t="n">
-        <v>1.344719848191926</v>
+        <v>1.331722500086657</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.008749190120896</v>
+        <v>-1.016775074476621</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1449530704014305</v>
+        <v>0.1426622549467947</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2272767011455111</v>
       </c>
       <c r="E53" t="n">
-        <v>1.102135777983628</v>
+        <v>1.091278860379631</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9356270616320066</v>
+        <v>-0.9455232675921857</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1013370537817149</v>
+        <v>0.09984488463280625</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.207807139530799</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9576596392439395</v>
+        <v>0.9467428596682151</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9427418759790047</v>
+        <v>-0.9543419580612743</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05062812353636491</v>
+        <v>0.04867165909454725</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1923957702206785</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7964382089496191</v>
+        <v>0.7867610102030763</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8964758720742899</v>
+        <v>-0.904789385903924</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02312957779219047</v>
+        <v>0.02231779105364524</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.180083277680254</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6506202860143856</v>
+        <v>0.6426075420914786</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8472182296313031</v>
+        <v>-0.8572838011700277</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0164191967663741</v>
+        <v>0.01564245118201067</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1697881955234841</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5076406965678786</v>
+        <v>0.4994410664893353</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8154242224036753</v>
+        <v>-0.8252167649493999</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01114505114189123</v>
+        <v>-0.01132317700898209</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1612203656904304</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3977180559476354</v>
+        <v>0.3900119221238192</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8094613860004042</v>
+        <v>-0.8190509818614925</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02691941071606881</v>
+        <v>-0.02754139120279592</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1543982957779988</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2520008763306745</v>
+        <v>0.2432493480737677</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7446162701388761</v>
+        <v>-0.7540730016236917</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09236752643914214</v>
+        <v>-0.09034973997750632</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1490139445228771</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1917855729654179</v>
+        <v>0.1833537952404202</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7275979495912444</v>
+        <v>-0.7385074289265141</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.07948114198878196</v>
+        <v>-0.07856861193196403</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1451261551928755</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0337747884230058</v>
+        <v>0.0260876352243715</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6998351351426154</v>
+        <v>-0.7110848056830669</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1359762428184032</v>
+        <v>-0.1354783664194033</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1420020060975581</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05341344337369806</v>
+        <v>-0.0618612816276958</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7181368379621559</v>
+        <v>-0.7301048521633345</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1679527560573946</v>
+        <v>-0.1685761965922126</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.138829652985718</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1468813420094002</v>
+        <v>-0.1545465944866709</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7520844161238741</v>
+        <v>-0.7634990720985984</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1831839777417541</v>
+        <v>-0.182962050431936</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1348947234823897</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2599898075640062</v>
+        <v>-0.2681865175463677</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7549694711515097</v>
+        <v>-0.7672908169906882</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2163343696458361</v>
+        <v>-0.2173710037903813</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1295867868054457</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4129079443653288</v>
+        <v>-0.4228085304697807</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7359085433246966</v>
+        <v>-0.7502914770682382</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2369327281123761</v>
+        <v>-0.2372349580671942</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.122721328573963</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4371987644537768</v>
+        <v>-0.4501362505873188</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7665870738108702</v>
+        <v>-0.7816649904456844</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2526486857629173</v>
+        <v>-0.2540401115935533</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1145018159173925</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5238350980721171</v>
+        <v>-0.5353548775093868</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8069676238611321</v>
+        <v>-0.8217009691464917</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2676638203298223</v>
+        <v>-0.2687311154842766</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1049238247125039</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5569650493029265</v>
+        <v>-0.5714706270861044</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7560937081815093</v>
+        <v>-0.7748173648993225</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3185859175964451</v>
+        <v>-0.3186297190391723</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.09408580967022216</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6374910816608139</v>
+        <v>-0.651513383525901</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8016369882812244</v>
+        <v>-0.8200408944671286</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3172134723909908</v>
+        <v>-0.3186443195200814</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.08152640684771309</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7472925382895117</v>
+        <v>-0.7586925937833269</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7985548267613162</v>
+        <v>-0.8182172944015836</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3569253204156166</v>
+        <v>-0.3569545213774347</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.06731448736088745</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7753984640395042</v>
+        <v>-0.7881651245464099</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9275135743908269</v>
+        <v>-0.9445669360926406</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4017327362775136</v>
+        <v>-0.400735523431423</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.05116779667194257</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8183224178641291</v>
+        <v>-0.8311241195252165</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9941530893560818</v>
+        <v>-1.010601991148259</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4192810542821453</v>
+        <v>-0.4197891510177815</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.03304027139021062</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8695467450855698</v>
+        <v>-0.8800152898973852</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.028475899877163</v>
+        <v>-1.042806271889432</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4525570103220454</v>
+        <v>-0.452868000565409</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.01273020450217005</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8117069399642217</v>
+        <v>-0.8226441602132187</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.053420821510339</v>
+        <v>-1.068706064974062</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4668684017091325</v>
+        <v>-0.4676524475339505</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.00940286430900647</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.795710653080226</v>
+        <v>-0.8052360068253144</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.118848496560139</v>
+        <v>-1.130220811140227</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4554303849649537</v>
+        <v>-0.4561399683371354</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.0320115445289629</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7131405533950663</v>
+        <v>-0.7211036556828824</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.161182590956037</v>
+        <v>-1.169956019934307</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4582219969147712</v>
+        <v>-0.458240977539953</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.05351834076419475</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5615656608373798</v>
+        <v>-0.572996377341104</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.14571484148095</v>
+        <v>-1.15474523892322</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.439210710723049</v>
+        <v>-0.4373856506094131</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.07245174814336386</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4233560485038714</v>
+        <v>-0.436075987471868</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.170034862531216</v>
+        <v>-1.177175957743851</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4516780613713184</v>
+        <v>-0.450326056839137</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.08769860888422536</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3205511423268081</v>
+        <v>-0.3352859476602587</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.252235570049376</v>
+        <v>-1.257669869043738</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3950325755883336</v>
+        <v>-0.3954866505446062</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.09864896819809532</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.132044333309586</v>
+        <v>-0.1463717852256731</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.30907232213227</v>
+        <v>-1.312808585196905</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3731084934552486</v>
+        <v>-0.3726996799897941</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1048355980556361</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02647892811273503</v>
+        <v>0.009666474345921364</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.301100459555909</v>
+        <v>-1.301707839561727</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3229339408111712</v>
+        <v>-0.3243516475074435</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1062328330634481</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2380267560525873</v>
+        <v>0.2212449632956827</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.288741152466366</v>
+        <v>-1.289744205504821</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2871233412854535</v>
+        <v>-0.2893966361629983</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1024637257829223</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4203444212124475</v>
+        <v>0.4036064298982701</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.230156722818655</v>
+        <v>-1.230974349749564</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2697312484265491</v>
+        <v>-0.2709576888229124</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.0929635309079633</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6265090518411194</v>
+        <v>0.6133846795519411</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.152682190970767</v>
+        <v>-1.153800587808403</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2448345083803739</v>
+        <v>-0.2474187935012823</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.07730539981553498</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7404906261540888</v>
+        <v>0.7276524232907285</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.064677792291245</v>
+        <v>-1.065889632206699</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2094210419353834</v>
+        <v>-0.2119089638822919</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.05587087695161459</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9655570393676647</v>
+        <v>0.9536751680038497</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9985697348310806</v>
+        <v>-0.9998998386418985</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1804142665133003</v>
+        <v>-0.1823911716283907</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.03015741578393112</v>
       </c>
       <c r="E87" t="n">
-        <v>1.10866219294999</v>
+        <v>1.09791331890472</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9426338324202774</v>
+        <v>-0.9432747935321864</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1505650433427629</v>
+        <v>-0.1526704326898532</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.002917924134275476</v>
       </c>
       <c r="E88" t="n">
-        <v>1.210753135610599</v>
+        <v>1.201122658402965</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8880280338202922</v>
+        <v>-0.8853576058620202</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1143032889569544</v>
+        <v>-0.1168481527794083</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.02203327740283047</v>
       </c>
       <c r="E89" t="n">
-        <v>1.332910979232657</v>
+        <v>1.324793111847204</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.791521775107409</v>
+        <v>-0.7871387107385011</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1128169600004094</v>
+        <v>-0.1147164825666816</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.041163294212504</v>
       </c>
       <c r="E90" t="n">
-        <v>1.370406474255283</v>
+        <v>1.364331214149012</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6916004639098904</v>
+        <v>-0.6871838184348915</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07839340616105499</v>
+        <v>-0.08087694796369069</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05109748935704234</v>
       </c>
       <c r="E91" t="n">
-        <v>1.415235790838544</v>
+        <v>1.410787024305545</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.586236093429464</v>
+        <v>-0.5811945473715563</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01705970595816237</v>
+        <v>-0.0208412305136159</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04970036815794857</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438522097840447</v>
+        <v>1.434791674968175</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4585213067734075</v>
+        <v>-0.4524299861381364</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02061346301143414</v>
+        <v>-0.02272031240661539</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.03666993137799392</v>
       </c>
       <c r="E93" t="n">
-        <v>1.409991298096</v>
+        <v>1.407317950041546</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3501360967928911</v>
+        <v>-0.3443207252468017</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01405784708325408</v>
+        <v>-0.01542883224061735</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.01488733902792218</v>
       </c>
       <c r="E94" t="n">
-        <v>1.409556203764909</v>
+        <v>1.407044921048546</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2106971239668377</v>
+        <v>-0.2038976800074758</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01684361884070788</v>
+        <v>-0.01935636160516175</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.01174613563761586</v>
       </c>
       <c r="E95" t="n">
-        <v>1.335139012619384</v>
+        <v>1.334430889295293</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09510365656150505</v>
+        <v>-0.08950291208477928</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01932278049907085</v>
+        <v>-0.02038423546116147</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04017265411424353</v>
       </c>
       <c r="E96" t="n">
-        <v>1.256607405953677</v>
+        <v>1.256087628833314</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03190884696282448</v>
+        <v>0.0358568170006416</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03380791760897605</v>
+        <v>-0.03489419338861213</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06793389316178224</v>
       </c>
       <c r="E97" t="n">
-        <v>1.174192071366154</v>
+        <v>1.176608450956608</v>
       </c>
       <c r="F97" t="n">
-        <v>0.132376216146343</v>
+        <v>0.1331398212978882</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05236950898869834</v>
+        <v>-0.05315063471733449</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.09376973165482749</v>
       </c>
       <c r="E98" t="n">
-        <v>1.076573256007999</v>
+        <v>1.080763594028906</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1934500277890538</v>
+        <v>0.1941888121230536</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05740229475806063</v>
+        <v>-0.05887256318560569</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1157377529902305</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9390279655558537</v>
+        <v>0.9448535574385794</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1946049258289626</v>
+        <v>0.1955378965590533</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05178256965615304</v>
+        <v>-0.05496547449433401</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1340161896554983</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8444285296496972</v>
+        <v>0.852268987897877</v>
       </c>
       <c r="F100" t="n">
-        <v>0.211309336037049</v>
+        <v>0.211437820269049</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.0452634549302457</v>
+        <v>-0.04730752225751788</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1491333324608194</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6915147729926474</v>
+        <v>0.7032185184893714</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1974096782115982</v>
+        <v>0.1978301720617799</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04959249751979</v>
+        <v>-0.04971514155942633</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1641019874631179</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6316352806882998</v>
+        <v>0.6425491401678424</v>
       </c>
       <c r="F102" t="n">
-        <v>0.206607981184323</v>
+        <v>0.2065524993568685</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08149746840232688</v>
+        <v>-0.0814507468634178</v>
       </c>
     </row>
   </sheetData>
